--- a/Content/Translation/Shared.xlsx
+++ b/Content/Translation/Shared.xlsx
@@ -21,40 +21,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>Página de Inicio</t>
+  </si>
+  <si>
+    <t>Page d'accueil</t>
+  </si>
+  <si>
+    <t>Никакие права не защищены</t>
+  </si>
+  <si>
+    <t>No rights reserved</t>
+  </si>
+  <si>
+    <t>No hay derechos reservados</t>
+  </si>
+  <si>
+    <t>Aucun droit n'est réservé</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
     <t>Домашняя страница</t>
   </si>
   <si>
     <t>Home page</t>
-  </si>
-  <si>
-    <t>Página de Inicio</t>
-  </si>
-  <si>
-    <t>Page d'accueil</t>
-  </si>
-  <si>
-    <t>Никакие права не защищены</t>
-  </si>
-  <si>
-    <t>No rights reserved</t>
-  </si>
-  <si>
-    <t>No hay derechos reservados</t>
-  </si>
-  <si>
-    <t>Aucun droit n'est réservé</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>es</t>
-  </si>
-  <si>
-    <t>fr</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,44 +391,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
